--- a/data/loginData.xlsx
+++ b/data/loginData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/NeteaseWork/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyanfei/Netease/在校大作业_测开/WebTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6757A22F-039F-8243-BD78-62942684CEF0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D2E1E8-0333-B048-83DD-D32A71274C20}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{1626A1D6-C57D-6441-A93B-052C0525E7D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,23 +39,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该手机号码没有注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号格式不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号或密码不正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijk123456#¥</t>
+    <t>手机号码格式错误，请更换后重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该手机帐号未注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15976819a13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号或密码错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,17 +419,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A880DA-BC51-9844-A6BA-FDFC9D1C4BE8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -449,32 +445,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>123456</v>
+        <v>1580628</v>
       </c>
       <c r="B2">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1234567891011</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>12345678910</v>
+      <c r="A4" s="1">
+        <v>15976819131</v>
       </c>
       <c r="B4">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -482,34 +478,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>15806891234</v>
+        <v>15806284945</v>
       </c>
       <c r="B5">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>15806284945</v>
-      </c>
-      <c r="B6">
-        <v>123456</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>15806284945</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
